--- a/config_8.3/act_ty_phb_config.xlsx
+++ b/config_8.3/act_ty_phb_config.xlsx
@@ -85,9 +85,6 @@
     <t>act_016_dlphb</t>
   </si>
   <si>
-    <t>actp_rank_ymshf_017_hldr_rank</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -173,6 +170,10 @@
   </si>
   <si>
     <t>"game_MiniGame",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_rank_xrkh_023_ygbd_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -729,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="9">
         <v>1627948800</v>
@@ -738,7 +739,7 @@
         <v>1628524799</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>18</v>
@@ -750,13 +751,13 @@
         <v>20</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -795,7 +796,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -823,19 +824,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,7 +847,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -857,7 +858,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -868,7 +869,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -879,7 +880,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -890,7 +891,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -901,7 +902,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -912,7 +913,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -923,13 +924,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4">
         <v>300000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -940,13 +941,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>200000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -957,13 +958,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4">
         <v>100000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -974,13 +975,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4">
         <v>50000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -991,13 +992,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4">
         <v>30000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1008,13 +1009,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4">
         <v>20000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1025,13 +1026,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
         <v>10000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">

--- a/config_8.3/act_ty_phb_config.xlsx
+++ b/config_8.3/act_ty_phb_config.xlsx
@@ -82,9 +82,6 @@
     <t>8,9,10,11,12,13,14</t>
   </si>
   <si>
-    <t>act_016_dlphb</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -174,6 +171,10 @@
   </si>
   <si>
     <t>actp_rank_xrkh_023_ygbd_rank</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_024_dlphb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9">
         <v>1627948800</v>
@@ -739,7 +740,7 @@
         <v>1628524799</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>18</v>
@@ -748,10 +749,10 @@
         <v>19</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1">
         <v>100</v>
@@ -796,7 +797,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -824,19 +825,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -847,7 +848,7 @@
         <v>40000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -858,7 +859,7 @@
         <v>15000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -869,7 +870,7 @@
         <v>5000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -880,7 +881,7 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -891,7 +892,7 @@
         <v>1200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -902,7 +903,7 @@
         <v>600</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -913,7 +914,7 @@
         <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -924,13 +925,13 @@
         <v>60000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>300000</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -941,13 +942,13 @@
         <v>15000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
         <v>200000</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -958,13 +959,13 @@
         <v>5000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>100000</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -975,13 +976,13 @@
         <v>800</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4">
         <v>50000</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -992,13 +993,13 @@
         <v>800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4">
         <v>30000</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1009,13 +1010,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4">
         <v>20000</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1026,13 +1027,13 @@
         <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>10000</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
